--- a/Data Science/Advance Excel/Lab 5/Vlookup hlookup Match and index.xlsx
+++ b/Data Science/Advance Excel/Lab 5/Vlookup hlookup Match and index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github repository\Lab-Record\Data Science\Advance Excel\Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACE3DD-6891-46E4-8D68-C466484643AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E477F221-9ED5-48FA-8B10-BA9342E50E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sampledata" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -941,13 +941,7 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="35" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -957,6 +951,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="35" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1379,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1667,7 +1667,7 @@
         <v>John Doe</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>Manager</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>HR</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>Male</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>5</v>
       </c>
@@ -1703,13 +1703,19 @@
         <v>New York</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>60000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="e" cm="1">
+        <f t="array" ref="A23">xl</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1729,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,7 +1768,7 @@
         <v>98</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(C2,$H$1:$I$8,2,TRUE)</f>
+        <f>VLOOKUP(C2,$H$1:$I$8,2,1)</f>
         <v>6000</v>
       </c>
       <c r="H2">
@@ -1994,108 +2000,116 @@
   <dimension ref="C4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8">
         <v>108</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="9">
         <f>VLOOKUP($E$6,sampledata!$A$1:$G$11,ROW()-7,0)</f>
         <v>108</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="str">
+      <c r="D9" s="5"/>
+      <c r="E9" s="9" t="str">
         <f>VLOOKUP($E$6,sampledata!$A$1:$G$11,ROW()-7,0)</f>
         <v>Emma Taylor</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="str">
+      <c r="D10" s="5"/>
+      <c r="E10" s="9" t="str">
         <f>VLOOKUP($E$6,sampledata!$A$1:$G$11,ROW()-7,0)</f>
         <v>Assistant</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="str">
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="str">
         <f>VLOOKUP($E$6,sampledata!$A$1:$G$11,ROW()-7,0)</f>
         <v>Admin</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="str">
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="str">
         <f>VLOOKUP($E$6,sampledata!$A$1:$G$11,ROW()-7,0)</f>
         <v>Female</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="str">
+      <c r="D13" s="5"/>
+      <c r="E13" s="9" t="str">
         <f>VLOOKUP($E$6,sampledata!$A$1:$G$11,ROW()-7,0)</f>
         <v>Miami</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9">
         <f>VLOOKUP($E$6,sampledata!$A$1:$G$11,ROW()-7,0)</f>
         <v>42000</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C6:D6"/>
@@ -2105,14 +2119,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2122,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2135,9 +2141,9 @@
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
